--- a/temp/stim/stimLSFsyntax.xlsx
+++ b/temp/stim/stimLSFsyntax.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="stimLSFsyntax" sheetId="1" r:id="rId1"/>
-    <sheet name="4" sheetId="2" r:id="rId2"/>
+    <sheet name="stimLSFsyntaxPrac" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">stimLSFsyntax!$D$1:$D$177</definedName>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="385">
   <si>
     <t>trigTimes</t>
   </si>
@@ -1076,24 +1076,12 @@
     <t>7.494</t>
   </si>
   <si>
-    <t xml:space="preserve">Practice </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Condition </t>
-  </si>
-  <si>
     <t xml:space="preserve">question </t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Fichié lié</t>
-  </si>
-  <si>
     <t>Q26fenetre</t>
   </si>
   <si>
@@ -1115,9 +1103,6 @@
     <t>Q105professeur</t>
   </si>
   <si>
-    <t>Q113chaise</t>
-  </si>
-  <si>
     <t>Q114sciences</t>
   </si>
   <si>
@@ -1142,9 +1127,6 @@
     <t>Q127europe</t>
   </si>
   <si>
-    <t>Q140chaussures</t>
-  </si>
-  <si>
     <t>Q141repos</t>
   </si>
   <si>
@@ -1188,6 +1170,9 @@
   </si>
   <si>
     <t>condID</t>
+  </si>
+  <si>
+    <t>repCorr</t>
   </si>
 </sst>
 </file>
@@ -1652,39 +1637,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F177"/>
+  <dimension ref="A1:G177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:K65536"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="5" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E1" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="F1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+      <c r="G1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1695,17 +1683,17 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="E2" t="s">
         <v>355</v>
       </c>
-      <c r="E2" t="s">
-        <v>359</v>
-      </c>
-      <c r="F2" t="str">
+      <c r="G2" t="str">
         <f>(RIGHT(A2,2)&amp;D2)</f>
         <v>C1X</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1715,12 +1703,12 @@
       <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F66" si="0">(RIGHT(A3,2)&amp;D3)</f>
-        <v>C2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G66" si="0">(RIGHT(A3,2)&amp;D3)</f>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1730,12 +1718,12 @@
       <c r="C4" s="2">
         <v>3</v>
       </c>
-      <c r="F4" t="str">
-        <f t="shared" si="0"/>
-        <v>C3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1745,12 +1733,12 @@
       <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" t="str">
-        <f t="shared" si="0"/>
-        <v>C1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1760,12 +1748,12 @@
       <c r="C6" s="2">
         <v>2</v>
       </c>
-      <c r="F6" t="str">
-        <f t="shared" si="0"/>
-        <v>C2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1775,12 +1763,12 @@
       <c r="C7" s="2">
         <v>3</v>
       </c>
-      <c r="F7" t="str">
-        <f t="shared" si="0"/>
-        <v>C3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1790,12 +1778,12 @@
       <c r="C8" s="2">
         <v>1</v>
       </c>
-      <c r="F8" t="str">
-        <f t="shared" si="0"/>
-        <v>C1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1805,12 +1793,12 @@
       <c r="C9" s="2">
         <v>2</v>
       </c>
-      <c r="F9" t="str">
-        <f t="shared" si="0"/>
-        <v>C2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1820,12 +1808,12 @@
       <c r="C10" s="2">
         <v>1</v>
       </c>
-      <c r="F10" t="str">
-        <f t="shared" si="0"/>
-        <v>C1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1835,12 +1823,12 @@
       <c r="C11" s="2">
         <v>2</v>
       </c>
-      <c r="F11" t="str">
-        <f t="shared" si="0"/>
-        <v>C2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1851,17 +1839,17 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E12" t="s">
-        <v>366</v>
-      </c>
-      <c r="F12" t="str">
+        <v>361</v>
+      </c>
+      <c r="G12" t="str">
         <f t="shared" si="0"/>
         <v>C3X</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1871,12 +1859,12 @@
       <c r="C13" s="2">
         <v>1</v>
       </c>
-      <c r="F13" t="str">
-        <f t="shared" si="0"/>
-        <v>C1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1886,12 +1874,12 @@
       <c r="C14" s="2">
         <v>2</v>
       </c>
-      <c r="F14" t="str">
-        <f t="shared" si="0"/>
-        <v>C2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1901,12 +1889,12 @@
       <c r="C15" s="2">
         <v>3</v>
       </c>
-      <c r="F15" t="str">
-        <f t="shared" si="0"/>
-        <v>C3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1916,12 +1904,12 @@
       <c r="C16" s="2">
         <v>1</v>
       </c>
-      <c r="F16" t="str">
-        <f t="shared" si="0"/>
-        <v>C1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1931,12 +1919,12 @@
       <c r="C17" s="2">
         <v>2</v>
       </c>
-      <c r="F17" t="str">
-        <f t="shared" si="0"/>
-        <v>C2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1946,12 +1934,12 @@
       <c r="C18" s="2">
         <v>3</v>
       </c>
-      <c r="F18" t="str">
-        <f t="shared" si="0"/>
-        <v>C3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1961,12 +1949,12 @@
       <c r="C19" s="2">
         <v>1</v>
       </c>
-      <c r="F19" t="str">
-        <f t="shared" si="0"/>
-        <v>C1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1976,12 +1964,12 @@
       <c r="C20" s="2">
         <v>2</v>
       </c>
-      <c r="F20" t="str">
-        <f t="shared" si="0"/>
-        <v>C2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -1991,12 +1979,12 @@
       <c r="C21" s="2">
         <v>3</v>
       </c>
-      <c r="F21" t="str">
-        <f t="shared" si="0"/>
-        <v>C3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -2006,12 +1994,12 @@
       <c r="C22" s="2">
         <v>1</v>
       </c>
-      <c r="F22" t="str">
-        <f t="shared" si="0"/>
-        <v>C1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -2021,12 +2009,12 @@
       <c r="C23" s="2">
         <v>2</v>
       </c>
-      <c r="F23" t="str">
-        <f t="shared" si="0"/>
-        <v>C2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -2036,12 +2024,12 @@
       <c r="C24" s="2">
         <v>3</v>
       </c>
-      <c r="F24" t="str">
-        <f t="shared" si="0"/>
-        <v>C3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -2051,12 +2039,12 @@
       <c r="C25" s="2">
         <v>1</v>
       </c>
-      <c r="F25" t="str">
-        <f t="shared" si="0"/>
-        <v>C1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -2066,12 +2054,12 @@
       <c r="C26" s="2">
         <v>2</v>
       </c>
-      <c r="F26" t="str">
-        <f t="shared" si="0"/>
-        <v>C2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -2081,12 +2069,12 @@
       <c r="C27" s="2">
         <v>3</v>
       </c>
-      <c r="F27" t="str">
-        <f t="shared" si="0"/>
-        <v>C3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -2096,12 +2084,12 @@
       <c r="C28" s="2">
         <v>1</v>
       </c>
-      <c r="F28" t="str">
-        <f t="shared" si="0"/>
-        <v>C1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -2111,12 +2099,12 @@
       <c r="C29" s="2">
         <v>3</v>
       </c>
-      <c r="F29" t="str">
-        <f t="shared" si="0"/>
-        <v>C3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -2126,12 +2114,12 @@
       <c r="C30" s="2">
         <v>1</v>
       </c>
-      <c r="F30" t="str">
-        <f t="shared" si="0"/>
-        <v>C1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -2141,12 +2129,12 @@
       <c r="C31" s="2">
         <v>2</v>
       </c>
-      <c r="F31" t="str">
-        <f t="shared" si="0"/>
-        <v>C2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -2157,17 +2145,17 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E32" t="s">
-        <v>375</v>
-      </c>
-      <c r="F32" t="str">
+        <v>369</v>
+      </c>
+      <c r="G32" t="str">
         <f t="shared" si="0"/>
         <v>C3X</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -2177,12 +2165,12 @@
       <c r="C33" s="2">
         <v>1</v>
       </c>
-      <c r="F33" t="str">
-        <f t="shared" si="0"/>
-        <v>C1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -2192,12 +2180,12 @@
       <c r="C34" s="2">
         <v>2</v>
       </c>
-      <c r="F34" t="str">
-        <f t="shared" si="0"/>
-        <v>C2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -2207,12 +2195,12 @@
       <c r="C35" s="2">
         <v>3</v>
       </c>
-      <c r="F35" t="str">
-        <f t="shared" si="0"/>
-        <v>C3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -2222,12 +2210,12 @@
       <c r="C36" s="2">
         <v>1</v>
       </c>
-      <c r="F36" t="str">
-        <f t="shared" si="0"/>
-        <v>C1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>73</v>
       </c>
@@ -2238,17 +2226,17 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E37" t="s">
-        <v>360</v>
-      </c>
-      <c r="F37" t="str">
+        <v>356</v>
+      </c>
+      <c r="G37" t="str">
         <f t="shared" si="0"/>
         <v>C2X</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -2258,12 +2246,12 @@
       <c r="C38" s="2">
         <v>3</v>
       </c>
-      <c r="F38" t="str">
-        <f t="shared" si="0"/>
-        <v>C3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -2273,12 +2261,12 @@
       <c r="C39" s="2">
         <v>1</v>
       </c>
-      <c r="F39" t="str">
-        <f t="shared" si="0"/>
-        <v>C1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -2289,17 +2277,17 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E40" t="s">
-        <v>361</v>
-      </c>
-      <c r="F40" t="str">
+        <v>357</v>
+      </c>
+      <c r="G40" t="str">
         <f t="shared" si="0"/>
         <v>C2X</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -2309,12 +2297,12 @@
       <c r="C41" s="2">
         <v>3</v>
       </c>
-      <c r="F41" t="str">
-        <f t="shared" si="0"/>
-        <v>C3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" t="str">
+        <f t="shared" si="0"/>
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>83</v>
       </c>
@@ -2324,12 +2312,12 @@
       <c r="C42" s="2">
         <v>1</v>
       </c>
-      <c r="F42" t="str">
-        <f t="shared" si="0"/>
-        <v>C1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" t="str">
+        <f t="shared" si="0"/>
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -2339,12 +2327,12 @@
       <c r="C43" s="2">
         <v>2</v>
       </c>
-      <c r="F43" t="str">
-        <f t="shared" si="0"/>
-        <v>C2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" t="str">
+        <f t="shared" si="0"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -2354,12 +2342,12 @@
       <c r="C44" s="2">
         <v>3</v>
       </c>
-      <c r="F44" t="str">
-        <f t="shared" si="0"/>
-        <v>C3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" t="str">
+        <f t="shared" si="0"/>
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -2370,17 +2358,17 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E45" t="s">
-        <v>377</v>
-      </c>
-      <c r="F45" t="str">
+        <v>371</v>
+      </c>
+      <c r="G45" t="str">
         <f t="shared" si="0"/>
         <v>C1X</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -2390,12 +2378,12 @@
       <c r="C46" s="2">
         <v>2</v>
       </c>
-      <c r="F46" t="str">
-        <f t="shared" si="0"/>
-        <v>C2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" t="str">
+        <f t="shared" si="0"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -2405,12 +2393,12 @@
       <c r="C47" s="2">
         <v>3</v>
       </c>
-      <c r="F47" t="str">
-        <f t="shared" si="0"/>
-        <v>C3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" t="str">
+        <f t="shared" si="0"/>
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -2420,12 +2408,12 @@
       <c r="C48" s="2">
         <v>1</v>
       </c>
-      <c r="F48" t="str">
-        <f t="shared" si="0"/>
-        <v>C1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" t="str">
+        <f t="shared" si="0"/>
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -2435,12 +2423,12 @@
       <c r="C49" s="2">
         <v>2</v>
       </c>
-      <c r="F49" t="str">
-        <f t="shared" si="0"/>
-        <v>C2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" t="str">
+        <f t="shared" si="0"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -2451,17 +2439,17 @@
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E50" t="s">
-        <v>376</v>
-      </c>
-      <c r="F50" t="str">
+        <v>370</v>
+      </c>
+      <c r="G50" t="str">
         <f t="shared" si="0"/>
         <v>C3X</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -2471,12 +2459,12 @@
       <c r="C51" s="2">
         <v>1</v>
       </c>
-      <c r="F51" t="str">
-        <f t="shared" si="0"/>
-        <v>C1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" t="str">
+        <f t="shared" si="0"/>
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -2486,12 +2474,12 @@
       <c r="C52" s="2">
         <v>2</v>
       </c>
-      <c r="F52" t="str">
-        <f t="shared" si="0"/>
-        <v>C2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" t="str">
+        <f t="shared" si="0"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -2501,12 +2489,12 @@
       <c r="C53" s="2">
         <v>3</v>
       </c>
-      <c r="F53" t="str">
-        <f t="shared" si="0"/>
-        <v>C3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53" t="str">
+        <f t="shared" si="0"/>
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>106</v>
       </c>
@@ -2516,12 +2504,12 @@
       <c r="C54" s="2">
         <v>1</v>
       </c>
-      <c r="F54" t="str">
-        <f t="shared" si="0"/>
-        <v>C1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54" t="str">
+        <f t="shared" si="0"/>
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>108</v>
       </c>
@@ -2531,12 +2519,12 @@
       <c r="C55" s="2">
         <v>2</v>
       </c>
-      <c r="F55" t="str">
-        <f t="shared" si="0"/>
-        <v>C2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55" t="str">
+        <f t="shared" si="0"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>110</v>
       </c>
@@ -2546,12 +2534,12 @@
       <c r="C56" s="2">
         <v>3</v>
       </c>
-      <c r="F56" t="str">
-        <f t="shared" si="0"/>
-        <v>C3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56" t="str">
+        <f t="shared" si="0"/>
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>112</v>
       </c>
@@ -2562,17 +2550,17 @@
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E57" t="s">
-        <v>378</v>
-      </c>
-      <c r="F57" t="str">
+        <v>372</v>
+      </c>
+      <c r="G57" t="str">
         <f t="shared" si="0"/>
         <v>C1X</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>114</v>
       </c>
@@ -2582,12 +2570,12 @@
       <c r="C58" s="2">
         <v>2</v>
       </c>
-      <c r="F58" t="str">
-        <f t="shared" si="0"/>
-        <v>C2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58" t="str">
+        <f t="shared" si="0"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>116</v>
       </c>
@@ -2597,12 +2585,12 @@
       <c r="C59" s="2">
         <v>3</v>
       </c>
-      <c r="F59" t="str">
-        <f t="shared" si="0"/>
-        <v>C3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59" t="str">
+        <f t="shared" si="0"/>
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>118</v>
       </c>
@@ -2612,12 +2600,12 @@
       <c r="C60" s="2">
         <v>1</v>
       </c>
-      <c r="F60" t="str">
-        <f t="shared" si="0"/>
-        <v>C1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60" t="str">
+        <f t="shared" si="0"/>
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>120</v>
       </c>
@@ -2627,12 +2615,12 @@
       <c r="C61" s="2">
         <v>2</v>
       </c>
-      <c r="F61" t="str">
-        <f t="shared" si="0"/>
-        <v>C2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61" t="str">
+        <f t="shared" si="0"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>122</v>
       </c>
@@ -2642,12 +2630,12 @@
       <c r="C62" s="2">
         <v>3</v>
       </c>
-      <c r="F62" t="str">
-        <f t="shared" si="0"/>
-        <v>C3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62" t="str">
+        <f t="shared" si="0"/>
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>124</v>
       </c>
@@ -2657,12 +2645,12 @@
       <c r="C63" s="2">
         <v>1</v>
       </c>
-      <c r="F63" t="str">
-        <f t="shared" si="0"/>
-        <v>C1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63" t="str">
+        <f t="shared" si="0"/>
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>126</v>
       </c>
@@ -2672,12 +2660,12 @@
       <c r="C64" s="2">
         <v>2</v>
       </c>
-      <c r="F64" t="str">
-        <f t="shared" si="0"/>
-        <v>C2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64" t="str">
+        <f t="shared" si="0"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>128</v>
       </c>
@@ -2687,12 +2675,12 @@
       <c r="C65" s="2">
         <v>3</v>
       </c>
-      <c r="F65" t="str">
-        <f t="shared" si="0"/>
-        <v>C3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65" t="str">
+        <f t="shared" si="0"/>
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>130</v>
       </c>
@@ -2702,12 +2690,12 @@
       <c r="C66" s="2">
         <v>1</v>
       </c>
-      <c r="F66" t="str">
-        <f t="shared" si="0"/>
-        <v>C1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66" t="str">
+        <f t="shared" si="0"/>
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>132</v>
       </c>
@@ -2717,12 +2705,12 @@
       <c r="C67" s="2">
         <v>2</v>
       </c>
-      <c r="F67" t="str">
-        <f t="shared" ref="F67:F130" si="1">(RIGHT(A67,2)&amp;D67)</f>
-        <v>C2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67" t="str">
+        <f t="shared" ref="G67:G130" si="1">(RIGHT(A67,2)&amp;D67)</f>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>134</v>
       </c>
@@ -2732,12 +2720,12 @@
       <c r="C68" s="2">
         <v>3</v>
       </c>
-      <c r="F68" t="str">
-        <f t="shared" si="1"/>
-        <v>C3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68" t="str">
+        <f t="shared" si="1"/>
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>136</v>
       </c>
@@ -2747,12 +2735,12 @@
       <c r="C69" s="2">
         <v>1</v>
       </c>
-      <c r="F69" t="str">
-        <f t="shared" si="1"/>
-        <v>C1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69" t="str">
+        <f t="shared" si="1"/>
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>138</v>
       </c>
@@ -2762,12 +2750,12 @@
       <c r="C70" s="2">
         <v>2</v>
       </c>
-      <c r="F70" t="str">
-        <f t="shared" si="1"/>
-        <v>C2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70" t="str">
+        <f t="shared" si="1"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>140</v>
       </c>
@@ -2777,12 +2765,12 @@
       <c r="C71" s="2">
         <v>3</v>
       </c>
-      <c r="F71" t="str">
-        <f t="shared" si="1"/>
-        <v>C3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71" t="str">
+        <f t="shared" si="1"/>
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>142</v>
       </c>
@@ -2792,12 +2780,12 @@
       <c r="C72" s="2">
         <v>1</v>
       </c>
-      <c r="F72" t="str">
-        <f t="shared" si="1"/>
-        <v>C1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72" t="str">
+        <f t="shared" si="1"/>
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>145</v>
       </c>
@@ -2807,12 +2795,12 @@
       <c r="C73" s="2">
         <v>3</v>
       </c>
-      <c r="F73" t="str">
-        <f t="shared" si="1"/>
-        <v>C3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73" t="str">
+        <f t="shared" si="1"/>
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>147</v>
       </c>
@@ -2822,12 +2810,12 @@
       <c r="C74" s="2">
         <v>1</v>
       </c>
-      <c r="F74" t="str">
-        <f t="shared" si="1"/>
-        <v>C1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74" t="str">
+        <f t="shared" si="1"/>
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>149</v>
       </c>
@@ -2837,12 +2825,12 @@
       <c r="C75" s="2">
         <v>2</v>
       </c>
-      <c r="F75" t="str">
-        <f t="shared" si="1"/>
-        <v>C2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75" t="str">
+        <f t="shared" si="1"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>151</v>
       </c>
@@ -2853,17 +2841,18 @@
         <v>3</v>
       </c>
       <c r="D76" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="F76" t="str">
+        <v>354</v>
+      </c>
+      <c r="F76" s="3"/>
+      <c r="G76" t="str">
         <f t="shared" si="1"/>
         <v>C3X</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -2873,12 +2862,12 @@
       <c r="C77" s="2">
         <v>1</v>
       </c>
-      <c r="F77" t="str">
-        <f t="shared" si="1"/>
-        <v>C1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77" t="str">
+        <f t="shared" si="1"/>
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>155</v>
       </c>
@@ -2889,17 +2878,17 @@
         <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E78" t="s">
-        <v>380</v>
-      </c>
-      <c r="F78" t="str">
+        <v>374</v>
+      </c>
+      <c r="G78" t="str">
         <f t="shared" si="1"/>
         <v>C2X</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>157</v>
       </c>
@@ -2909,12 +2898,12 @@
       <c r="C79" s="2">
         <v>3</v>
       </c>
-      <c r="F79" t="str">
-        <f t="shared" si="1"/>
-        <v>C3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79" t="str">
+        <f t="shared" si="1"/>
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>159</v>
       </c>
@@ -2925,17 +2914,17 @@
         <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E80" t="s">
-        <v>362</v>
-      </c>
-      <c r="F80" t="str">
+        <v>358</v>
+      </c>
+      <c r="G80" t="str">
         <f t="shared" si="1"/>
         <v>C1X</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>161</v>
       </c>
@@ -2945,12 +2934,12 @@
       <c r="C81" s="2">
         <v>2</v>
       </c>
-      <c r="F81" t="str">
-        <f t="shared" si="1"/>
-        <v>C2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81" t="str">
+        <f t="shared" si="1"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>163</v>
       </c>
@@ -2960,12 +2949,12 @@
       <c r="C82" s="2">
         <v>3</v>
       </c>
-      <c r="F82" t="str">
-        <f t="shared" si="1"/>
-        <v>C3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82" t="str">
+        <f t="shared" si="1"/>
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>165</v>
       </c>
@@ -2975,12 +2964,12 @@
       <c r="C83" s="2">
         <v>1</v>
       </c>
-      <c r="F83" t="str">
-        <f t="shared" si="1"/>
-        <v>C1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83" t="str">
+        <f t="shared" si="1"/>
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>167</v>
       </c>
@@ -2990,12 +2979,12 @@
       <c r="C84" s="2">
         <v>2</v>
       </c>
-      <c r="F84" t="str">
-        <f t="shared" si="1"/>
-        <v>C2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84" t="str">
+        <f t="shared" si="1"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>169</v>
       </c>
@@ -3005,12 +2994,12 @@
       <c r="C85" s="2">
         <v>3</v>
       </c>
-      <c r="F85" t="str">
-        <f t="shared" si="1"/>
-        <v>C3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85" t="str">
+        <f t="shared" si="1"/>
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>171</v>
       </c>
@@ -3020,12 +3009,12 @@
       <c r="C86" s="2">
         <v>1</v>
       </c>
-      <c r="F86" t="str">
-        <f t="shared" si="1"/>
-        <v>C1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86" t="str">
+        <f t="shared" si="1"/>
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>173</v>
       </c>
@@ -3035,12 +3024,12 @@
       <c r="C87" s="2">
         <v>2</v>
       </c>
-      <c r="F87" t="str">
-        <f t="shared" si="1"/>
-        <v>C2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G87" t="str">
+        <f t="shared" si="1"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>175</v>
       </c>
@@ -3050,12 +3039,12 @@
       <c r="C88" s="2">
         <v>3</v>
       </c>
-      <c r="F88" t="str">
-        <f t="shared" si="1"/>
-        <v>C3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G88" t="str">
+        <f t="shared" si="1"/>
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>178</v>
       </c>
@@ -3066,17 +3055,17 @@
         <v>2</v>
       </c>
       <c r="D89" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E89" t="s">
-        <v>383</v>
-      </c>
-      <c r="F89" t="str">
+        <v>377</v>
+      </c>
+      <c r="G89" t="str">
         <f t="shared" si="1"/>
         <v>C2X</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>180</v>
       </c>
@@ -3086,12 +3075,12 @@
       <c r="C90" s="2">
         <v>3</v>
       </c>
-      <c r="F90" t="str">
-        <f t="shared" si="1"/>
-        <v>C3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G90" t="str">
+        <f t="shared" si="1"/>
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>182</v>
       </c>
@@ -3101,12 +3090,12 @@
       <c r="C91" s="2">
         <v>1</v>
       </c>
-      <c r="F91" t="str">
-        <f t="shared" si="1"/>
-        <v>C1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G91" t="str">
+        <f t="shared" si="1"/>
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>184</v>
       </c>
@@ -3116,12 +3105,12 @@
       <c r="C92" s="2">
         <v>2</v>
       </c>
-      <c r="F92" t="str">
-        <f t="shared" si="1"/>
-        <v>C2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G92" t="str">
+        <f t="shared" si="1"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>186</v>
       </c>
@@ -3132,17 +3121,17 @@
         <v>3</v>
       </c>
       <c r="D93" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E93" t="s">
-        <v>381</v>
-      </c>
-      <c r="F93" t="str">
+        <v>375</v>
+      </c>
+      <c r="G93" t="str">
         <f t="shared" si="1"/>
         <v>C3X</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>188</v>
       </c>
@@ -3152,12 +3141,12 @@
       <c r="C94" s="2">
         <v>1</v>
       </c>
-      <c r="F94" t="str">
-        <f t="shared" si="1"/>
-        <v>C1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G94" t="str">
+        <f t="shared" si="1"/>
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>190</v>
       </c>
@@ -3167,12 +3156,12 @@
       <c r="C95" s="2">
         <v>2</v>
       </c>
-      <c r="F95" t="str">
-        <f t="shared" si="1"/>
-        <v>C2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G95" t="str">
+        <f t="shared" si="1"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>192</v>
       </c>
@@ -3182,12 +3171,12 @@
       <c r="C96" s="2">
         <v>3</v>
       </c>
-      <c r="F96" t="str">
-        <f t="shared" si="1"/>
-        <v>C3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G96" t="str">
+        <f t="shared" si="1"/>
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>194</v>
       </c>
@@ -3197,12 +3186,12 @@
       <c r="C97" s="2">
         <v>1</v>
       </c>
-      <c r="F97" t="str">
-        <f t="shared" si="1"/>
-        <v>C1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G97" t="str">
+        <f t="shared" si="1"/>
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>196</v>
       </c>
@@ -3212,12 +3201,12 @@
       <c r="C98" s="2">
         <v>2</v>
       </c>
-      <c r="F98" t="str">
-        <f t="shared" si="1"/>
-        <v>C2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G98" t="str">
+        <f t="shared" si="1"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>198</v>
       </c>
@@ -3227,12 +3216,12 @@
       <c r="C99" s="2">
         <v>3</v>
       </c>
-      <c r="F99" t="str">
-        <f t="shared" si="1"/>
-        <v>C3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G99" t="str">
+        <f t="shared" si="1"/>
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>200</v>
       </c>
@@ -3242,12 +3231,12 @@
       <c r="C100" s="2">
         <v>1</v>
       </c>
-      <c r="F100" t="str">
-        <f t="shared" si="1"/>
-        <v>C1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G100" t="str">
+        <f t="shared" si="1"/>
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>202</v>
       </c>
@@ -3257,12 +3246,12 @@
       <c r="C101" s="2">
         <v>2</v>
       </c>
-      <c r="F101" t="str">
-        <f t="shared" si="1"/>
-        <v>C2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G101" t="str">
+        <f t="shared" si="1"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>204</v>
       </c>
@@ -3272,12 +3261,12 @@
       <c r="C102" s="2">
         <v>3</v>
       </c>
-      <c r="F102" t="str">
-        <f t="shared" si="1"/>
-        <v>C3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G102" t="str">
+        <f t="shared" si="1"/>
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>206</v>
       </c>
@@ -3287,12 +3276,12 @@
       <c r="C103" s="2">
         <v>1</v>
       </c>
-      <c r="F103" t="str">
-        <f t="shared" si="1"/>
-        <v>C1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G103" t="str">
+        <f t="shared" si="1"/>
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>208</v>
       </c>
@@ -3302,12 +3291,12 @@
       <c r="C104" s="2">
         <v>2</v>
       </c>
-      <c r="F104" t="str">
-        <f t="shared" si="1"/>
-        <v>C2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G104" t="str">
+        <f t="shared" si="1"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>209</v>
       </c>
@@ -3317,12 +3306,12 @@
       <c r="C105" s="2">
         <v>3</v>
       </c>
-      <c r="F105" t="str">
-        <f t="shared" si="1"/>
-        <v>C3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G105" t="str">
+        <f t="shared" si="1"/>
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>211</v>
       </c>
@@ -3332,12 +3321,12 @@
       <c r="C106" s="2">
         <v>1</v>
       </c>
-      <c r="F106" t="str">
-        <f t="shared" si="1"/>
-        <v>C1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G106" t="str">
+        <f t="shared" si="1"/>
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>213</v>
       </c>
@@ -3347,12 +3336,12 @@
       <c r="C107" s="2">
         <v>2</v>
       </c>
-      <c r="F107" t="str">
-        <f t="shared" si="1"/>
-        <v>C2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G107" t="str">
+        <f t="shared" si="1"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>215</v>
       </c>
@@ -3362,12 +3351,12 @@
       <c r="C108" s="2">
         <v>3</v>
       </c>
-      <c r="F108" t="str">
-        <f t="shared" si="1"/>
-        <v>C3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G108" t="str">
+        <f t="shared" si="1"/>
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>217</v>
       </c>
@@ -3377,12 +3366,12 @@
       <c r="C109" s="2">
         <v>1</v>
       </c>
-      <c r="F109" t="str">
-        <f t="shared" si="1"/>
-        <v>C1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G109" t="str">
+        <f t="shared" si="1"/>
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>219</v>
       </c>
@@ -3392,12 +3381,12 @@
       <c r="C110" s="2">
         <v>2</v>
       </c>
-      <c r="F110" t="str">
-        <f t="shared" si="1"/>
-        <v>C2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G110" t="str">
+        <f t="shared" si="1"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>221</v>
       </c>
@@ -3407,12 +3396,12 @@
       <c r="C111" s="2">
         <v>3</v>
       </c>
-      <c r="F111" t="str">
-        <f t="shared" si="1"/>
-        <v>C3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G111" t="str">
+        <f t="shared" si="1"/>
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>223</v>
       </c>
@@ -3423,17 +3412,17 @@
         <v>1</v>
       </c>
       <c r="D112" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E112" t="s">
-        <v>368</v>
-      </c>
-      <c r="F112" t="str">
+        <v>363</v>
+      </c>
+      <c r="G112" t="str">
         <f t="shared" si="1"/>
         <v>C1X</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>225</v>
       </c>
@@ -3443,12 +3432,12 @@
       <c r="C113" s="2">
         <v>2</v>
       </c>
-      <c r="F113" t="str">
-        <f t="shared" si="1"/>
-        <v>C2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G113" t="str">
+        <f t="shared" si="1"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>226</v>
       </c>
@@ -3458,12 +3447,12 @@
       <c r="C114" s="2">
         <v>3</v>
       </c>
-      <c r="F114" t="str">
-        <f t="shared" si="1"/>
-        <v>C3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G114" t="str">
+        <f t="shared" si="1"/>
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>228</v>
       </c>
@@ -3473,12 +3462,12 @@
       <c r="C115" s="2">
         <v>1</v>
       </c>
-      <c r="F115" t="str">
-        <f t="shared" si="1"/>
-        <v>C1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G115" t="str">
+        <f t="shared" si="1"/>
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>230</v>
       </c>
@@ -3489,17 +3478,17 @@
         <v>2</v>
       </c>
       <c r="D116" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E116" t="s">
-        <v>384</v>
-      </c>
-      <c r="F116" t="str">
+        <v>378</v>
+      </c>
+      <c r="G116" t="str">
         <f t="shared" si="1"/>
         <v>C2X</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>232</v>
       </c>
@@ -3509,12 +3498,12 @@
       <c r="C117" s="2">
         <v>3</v>
       </c>
-      <c r="F117" t="str">
-        <f t="shared" si="1"/>
-        <v>C3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G117" t="str">
+        <f t="shared" si="1"/>
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>234</v>
       </c>
@@ -3524,12 +3513,12 @@
       <c r="C118" s="2">
         <v>1</v>
       </c>
-      <c r="F118" t="str">
-        <f t="shared" si="1"/>
-        <v>C1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G118" t="str">
+        <f t="shared" si="1"/>
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>236</v>
       </c>
@@ -3539,12 +3528,12 @@
       <c r="C119" s="2">
         <v>2</v>
       </c>
-      <c r="F119" t="str">
-        <f t="shared" si="1"/>
-        <v>C2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G119" t="str">
+        <f t="shared" si="1"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>238</v>
       </c>
@@ -3554,12 +3543,12 @@
       <c r="C120" s="2">
         <v>3</v>
       </c>
-      <c r="F120" t="str">
-        <f t="shared" si="1"/>
-        <v>C3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G120" t="str">
+        <f t="shared" si="1"/>
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>240</v>
       </c>
@@ -3569,12 +3558,12 @@
       <c r="C121" s="2">
         <v>1</v>
       </c>
-      <c r="F121" t="str">
-        <f t="shared" si="1"/>
-        <v>C1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G121" t="str">
+        <f t="shared" si="1"/>
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>242</v>
       </c>
@@ -3584,12 +3573,12 @@
       <c r="C122" s="2">
         <v>2</v>
       </c>
-      <c r="F122" t="str">
-        <f t="shared" si="1"/>
-        <v>C2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G122" t="str">
+        <f t="shared" si="1"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>244</v>
       </c>
@@ -3599,12 +3588,12 @@
       <c r="C123" s="2">
         <v>3</v>
       </c>
-      <c r="F123" t="str">
-        <f t="shared" si="1"/>
-        <v>C3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G123" t="str">
+        <f t="shared" si="1"/>
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>246</v>
       </c>
@@ -3614,12 +3603,12 @@
       <c r="C124" s="2">
         <v>1</v>
       </c>
-      <c r="F124" t="str">
-        <f t="shared" si="1"/>
-        <v>C1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G124" t="str">
+        <f t="shared" si="1"/>
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>248</v>
       </c>
@@ -3629,12 +3618,12 @@
       <c r="C125" s="2">
         <v>2</v>
       </c>
-      <c r="F125" t="str">
-        <f t="shared" si="1"/>
-        <v>C2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G125" t="str">
+        <f t="shared" si="1"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>250</v>
       </c>
@@ -3644,12 +3633,12 @@
       <c r="C126" s="2">
         <v>3</v>
       </c>
-      <c r="F126" t="str">
-        <f t="shared" si="1"/>
-        <v>C3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G126" t="str">
+        <f t="shared" si="1"/>
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>252</v>
       </c>
@@ -3659,12 +3648,12 @@
       <c r="C127" s="2">
         <v>1</v>
       </c>
-      <c r="F127" t="str">
-        <f t="shared" si="1"/>
-        <v>C1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G127" t="str">
+        <f t="shared" si="1"/>
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>254</v>
       </c>
@@ -3674,12 +3663,12 @@
       <c r="C128" s="2">
         <v>2</v>
       </c>
-      <c r="F128" t="str">
-        <f t="shared" si="1"/>
-        <v>C2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G128" t="str">
+        <f t="shared" si="1"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>256</v>
       </c>
@@ -3689,12 +3678,12 @@
       <c r="C129" s="2">
         <v>3</v>
       </c>
-      <c r="F129" t="str">
-        <f t="shared" si="1"/>
-        <v>C3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G129" t="str">
+        <f t="shared" si="1"/>
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>258</v>
       </c>
@@ -3705,17 +3694,17 @@
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E130" t="s">
-        <v>372</v>
-      </c>
-      <c r="F130" t="str">
+        <v>367</v>
+      </c>
+      <c r="G130" t="str">
         <f t="shared" si="1"/>
         <v>C1X</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>260</v>
       </c>
@@ -3725,12 +3714,12 @@
       <c r="C131" s="2">
         <v>2</v>
       </c>
-      <c r="F131" t="str">
-        <f t="shared" ref="F131:F177" si="2">(RIGHT(A131,2)&amp;D131)</f>
-        <v>C2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G131" t="str">
+        <f t="shared" ref="G131:G177" si="2">(RIGHT(A131,2)&amp;D131)</f>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>262</v>
       </c>
@@ -3740,12 +3729,12 @@
       <c r="C132" s="2">
         <v>3</v>
       </c>
-      <c r="F132" t="str">
+      <c r="G132" t="str">
         <f t="shared" si="2"/>
         <v>C3</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>264</v>
       </c>
@@ -3755,12 +3744,12 @@
       <c r="C133" s="2">
         <v>1</v>
       </c>
-      <c r="F133" t="str">
+      <c r="G133" t="str">
         <f t="shared" si="2"/>
         <v>C1</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>266</v>
       </c>
@@ -3770,12 +3759,12 @@
       <c r="C134" s="2">
         <v>2</v>
       </c>
-      <c r="F134" t="str">
+      <c r="G134" t="str">
         <f t="shared" si="2"/>
         <v>C2</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>268</v>
       </c>
@@ -3785,12 +3774,12 @@
       <c r="C135" s="2">
         <v>3</v>
       </c>
-      <c r="F135" t="str">
+      <c r="G135" t="str">
         <f t="shared" si="2"/>
         <v>C3</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>270</v>
       </c>
@@ -3801,17 +3790,17 @@
         <v>1</v>
       </c>
       <c r="D136" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E136" t="s">
-        <v>373</v>
-      </c>
-      <c r="F136" t="str">
+        <v>368</v>
+      </c>
+      <c r="G136" t="str">
         <f t="shared" si="2"/>
         <v>C1X</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>272</v>
       </c>
@@ -3822,17 +3811,17 @@
         <v>2</v>
       </c>
       <c r="D137" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E137" t="s">
-        <v>369</v>
-      </c>
-      <c r="F137" t="str">
+        <v>364</v>
+      </c>
+      <c r="G137" t="str">
         <f t="shared" si="2"/>
         <v>C2X</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>274</v>
       </c>
@@ -3842,12 +3831,12 @@
       <c r="C138" s="2">
         <v>3</v>
       </c>
-      <c r="F138" t="str">
+      <c r="G138" t="str">
         <f t="shared" si="2"/>
         <v>C3</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>276</v>
       </c>
@@ -3857,12 +3846,12 @@
       <c r="C139" s="2">
         <v>1</v>
       </c>
-      <c r="F139" t="str">
+      <c r="G139" t="str">
         <f t="shared" si="2"/>
         <v>C1</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>278</v>
       </c>
@@ -3872,12 +3861,12 @@
       <c r="C140" s="2">
         <v>2</v>
       </c>
-      <c r="F140" t="str">
+      <c r="G140" t="str">
         <f t="shared" si="2"/>
         <v>C2</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>280</v>
       </c>
@@ -3888,17 +3877,17 @@
         <v>3</v>
       </c>
       <c r="D141" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E141" t="s">
-        <v>385</v>
-      </c>
-      <c r="F141" t="str">
+        <v>379</v>
+      </c>
+      <c r="G141" t="str">
         <f t="shared" si="2"/>
         <v>C3X</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>282</v>
       </c>
@@ -3908,12 +3897,12 @@
       <c r="C142" s="2">
         <v>1</v>
       </c>
-      <c r="F142" t="str">
+      <c r="G142" t="str">
         <f t="shared" si="2"/>
         <v>C1</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>284</v>
       </c>
@@ -3923,12 +3912,12 @@
       <c r="C143" s="2">
         <v>2</v>
       </c>
-      <c r="F143" t="str">
+      <c r="G143" t="str">
         <f t="shared" si="2"/>
         <v>C2</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>286</v>
       </c>
@@ -3938,12 +3927,12 @@
       <c r="C144" s="2">
         <v>3</v>
       </c>
-      <c r="F144" t="str">
+      <c r="G144" t="str">
         <f t="shared" si="2"/>
         <v>C3</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>288</v>
       </c>
@@ -3953,12 +3942,12 @@
       <c r="C145" s="2">
         <v>1</v>
       </c>
-      <c r="F145" t="str">
+      <c r="G145" t="str">
         <f t="shared" si="2"/>
         <v>C1</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>290</v>
       </c>
@@ -3968,12 +3957,12 @@
       <c r="C146" s="2">
         <v>2</v>
       </c>
-      <c r="F146" t="str">
+      <c r="G146" t="str">
         <f t="shared" si="2"/>
         <v>C2</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>292</v>
       </c>
@@ -3983,12 +3972,12 @@
       <c r="C147" s="2">
         <v>3</v>
       </c>
-      <c r="F147" t="str">
+      <c r="G147" t="str">
         <f t="shared" si="2"/>
         <v>C3</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>294</v>
       </c>
@@ -3998,12 +3987,12 @@
       <c r="C148" s="2">
         <v>1</v>
       </c>
-      <c r="F148" t="str">
+      <c r="G148" t="str">
         <f t="shared" si="2"/>
         <v>C1</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>296</v>
       </c>
@@ -4013,12 +4002,12 @@
       <c r="C149" s="2">
         <v>2</v>
       </c>
-      <c r="F149" t="str">
+      <c r="G149" t="str">
         <f t="shared" si="2"/>
         <v>C2</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>298</v>
       </c>
@@ -4029,17 +4018,17 @@
         <v>3</v>
       </c>
       <c r="D150" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E150" t="s">
-        <v>370</v>
-      </c>
-      <c r="F150" t="str">
+        <v>365</v>
+      </c>
+      <c r="G150" t="str">
         <f t="shared" si="2"/>
         <v>C3X</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>300</v>
       </c>
@@ -4049,12 +4038,12 @@
       <c r="C151" s="2">
         <v>1</v>
       </c>
-      <c r="F151" t="str">
+      <c r="G151" t="str">
         <f t="shared" si="2"/>
         <v>C1</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>302</v>
       </c>
@@ -4064,12 +4053,12 @@
       <c r="C152" s="2">
         <v>2</v>
       </c>
-      <c r="F152" t="str">
+      <c r="G152" t="str">
         <f t="shared" si="2"/>
         <v>C2</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>304</v>
       </c>
@@ -4080,17 +4069,17 @@
         <v>3</v>
       </c>
       <c r="D153" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E153" t="s">
-        <v>371</v>
-      </c>
-      <c r="F153" t="str">
+        <v>366</v>
+      </c>
+      <c r="G153" t="str">
         <f t="shared" si="2"/>
         <v>C3X</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>306</v>
       </c>
@@ -4101,17 +4090,17 @@
         <v>1</v>
       </c>
       <c r="D154" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E154" t="s">
-        <v>382</v>
-      </c>
-      <c r="F154" t="str">
+        <v>376</v>
+      </c>
+      <c r="G154" t="str">
         <f t="shared" si="2"/>
         <v>C1X</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>308</v>
       </c>
@@ -4122,17 +4111,17 @@
         <v>2</v>
       </c>
       <c r="D155" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E155" t="s">
-        <v>363</v>
-      </c>
-      <c r="F155" t="str">
+        <v>359</v>
+      </c>
+      <c r="G155" t="str">
         <f t="shared" si="2"/>
         <v>C2X</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>310</v>
       </c>
@@ -4142,12 +4131,12 @@
       <c r="C156" s="2">
         <v>3</v>
       </c>
-      <c r="F156" t="str">
+      <c r="G156" t="str">
         <f t="shared" si="2"/>
         <v>C3</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>312</v>
       </c>
@@ -4157,12 +4146,12 @@
       <c r="C157" s="2">
         <v>1</v>
       </c>
-      <c r="F157" t="str">
+      <c r="G157" t="str">
         <f t="shared" si="2"/>
         <v>C1</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>314</v>
       </c>
@@ -4172,12 +4161,12 @@
       <c r="C158" s="2">
         <v>2</v>
       </c>
-      <c r="F158" t="str">
+      <c r="G158" t="str">
         <f t="shared" si="2"/>
         <v>C2</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>316</v>
       </c>
@@ -4187,12 +4176,12 @@
       <c r="C159" s="2">
         <v>3</v>
       </c>
-      <c r="F159" t="str">
+      <c r="G159" t="str">
         <f t="shared" si="2"/>
         <v>C3</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>318</v>
       </c>
@@ -4202,12 +4191,12 @@
       <c r="C160" s="2">
         <v>1</v>
       </c>
-      <c r="F160" t="str">
+      <c r="G160" t="str">
         <f t="shared" si="2"/>
         <v>C1</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>320</v>
       </c>
@@ -4218,17 +4207,17 @@
         <v>2</v>
       </c>
       <c r="D161" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E161" t="s">
-        <v>364</v>
-      </c>
-      <c r="F161" t="str">
+        <v>360</v>
+      </c>
+      <c r="G161" t="str">
         <f t="shared" si="2"/>
         <v>C2X</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>322</v>
       </c>
@@ -4238,12 +4227,12 @@
       <c r="C162" s="2">
         <v>3</v>
       </c>
-      <c r="F162" t="str">
+      <c r="G162" t="str">
         <f t="shared" si="2"/>
         <v>C3</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>324</v>
       </c>
@@ -4253,12 +4242,12 @@
       <c r="C163" s="2">
         <v>1</v>
       </c>
-      <c r="F163" t="str">
+      <c r="G163" t="str">
         <f t="shared" si="2"/>
         <v>C1</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>326</v>
       </c>
@@ -4268,12 +4257,12 @@
       <c r="C164" s="2">
         <v>2</v>
       </c>
-      <c r="F164" t="str">
+      <c r="G164" t="str">
         <f t="shared" si="2"/>
         <v>C2</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>328</v>
       </c>
@@ -4283,12 +4272,12 @@
       <c r="C165" s="2">
         <v>3</v>
       </c>
-      <c r="F165" t="str">
+      <c r="G165" t="str">
         <f t="shared" si="2"/>
         <v>C3</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>329</v>
       </c>
@@ -4298,12 +4287,12 @@
       <c r="C166" s="2">
         <v>1</v>
       </c>
-      <c r="F166" t="str">
+      <c r="G166" t="str">
         <f t="shared" si="2"/>
         <v>C1</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>331</v>
       </c>
@@ -4313,12 +4302,12 @@
       <c r="C167" s="2">
         <v>2</v>
       </c>
-      <c r="F167" t="str">
+      <c r="G167" t="str">
         <f t="shared" si="2"/>
         <v>C2</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>333</v>
       </c>
@@ -4328,12 +4317,12 @@
       <c r="C168" s="2">
         <v>3</v>
       </c>
-      <c r="F168" t="str">
+      <c r="G168" t="str">
         <f t="shared" si="2"/>
         <v>C3</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>335</v>
       </c>
@@ -4343,12 +4332,12 @@
       <c r="C169" s="2">
         <v>1</v>
       </c>
-      <c r="F169" t="str">
+      <c r="G169" t="str">
         <f t="shared" si="2"/>
         <v>C1</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>337</v>
       </c>
@@ -4358,12 +4347,12 @@
       <c r="C170" s="2">
         <v>2</v>
       </c>
-      <c r="F170" t="str">
+      <c r="G170" t="str">
         <f t="shared" si="2"/>
         <v>C2</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>339</v>
       </c>
@@ -4373,12 +4362,12 @@
       <c r="C171" s="2">
         <v>3</v>
       </c>
-      <c r="F171" t="str">
+      <c r="G171" t="str">
         <f t="shared" si="2"/>
         <v>C3</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>341</v>
       </c>
@@ -4388,12 +4377,12 @@
       <c r="C172" s="2">
         <v>1</v>
       </c>
-      <c r="F172" t="str">
+      <c r="G172" t="str">
         <f t="shared" si="2"/>
         <v>C1</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>343</v>
       </c>
@@ -4403,12 +4392,12 @@
       <c r="C173" s="2">
         <v>2</v>
       </c>
-      <c r="F173" t="str">
+      <c r="G173" t="str">
         <f t="shared" si="2"/>
         <v>C2</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>345</v>
       </c>
@@ -4418,12 +4407,12 @@
       <c r="C174" s="2">
         <v>3</v>
       </c>
-      <c r="F174" t="str">
+      <c r="G174" t="str">
         <f t="shared" si="2"/>
         <v>C3</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>347</v>
       </c>
@@ -4433,12 +4422,12 @@
       <c r="C175" s="2">
         <v>1</v>
       </c>
-      <c r="F175" t="str">
+      <c r="G175" t="str">
         <f t="shared" si="2"/>
         <v>C1</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>348</v>
       </c>
@@ -4448,12 +4437,12 @@
       <c r="C176" s="2">
         <v>2</v>
       </c>
-      <c r="F176" t="str">
+      <c r="G176" t="str">
         <f t="shared" si="2"/>
         <v>C2</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>350</v>
       </c>
@@ -4463,7 +4452,7 @@
       <c r="C177" s="2">
         <v>3</v>
       </c>
-      <c r="F177" t="str">
+      <c r="G177" t="str">
         <f t="shared" si="2"/>
         <v>C3</v>
       </c>
@@ -4478,10 +4467,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4489,21 +4478,24 @@
     <col min="4" max="4" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C1" t="s">
         <v>352</v>
       </c>
-      <c r="B1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C1" t="s">
-        <v>356</v>
-      </c>
       <c r="D1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+      <c r="E1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>177</v>
       </c>
@@ -4511,24 +4503,29 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+      <c r="E2" t="str">
+        <f>(RIGHT(A2,2)&amp;C2)</f>
+        <v>C1X</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>56</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E5" si="0">(RIGHT(A3,2)&amp;C3)</f>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>144</v>
       </c>
@@ -4536,21 +4533,26 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D4" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>C2X</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>365</v>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>C3</v>
       </c>
     </row>
   </sheetData>
